--- a/import/templates/importRegulars.xlsx
+++ b/import/templates/importRegulars.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GUEST FILES\YBETCH\xampp\htdocs\ccstdocrepo\import\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BC421-51C9-4213-BF80-6DEFE624E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0B7EC6C-C2BD-401B-8586-A1C674FBDF3E}"/>
+    <workbookView windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
   <si>
     <t>No.</t>
   </si>
@@ -159,6 +161,9 @@
     <t>CP Street Address 43</t>
   </si>
   <si>
+    <t>05-2343</t>
+  </si>
+  <si>
     <t>Maria Erica</t>
   </si>
   <si>
@@ -213,6 +218,9 @@
     <t>09265469987</t>
   </si>
   <si>
+    <t>05-5463</t>
+  </si>
+  <si>
     <t>Hazel Mae</t>
   </si>
   <si>
@@ -228,25 +236,133 @@
     <t>09265984456</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>05-2343</t>
-  </si>
-  <si>
-    <t>05-5463</t>
+    <t>05-5464</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Denero</t>
+  </si>
+  <si>
+    <t>rachel@g.com</t>
+  </si>
+  <si>
+    <t>09658754215</t>
+  </si>
+  <si>
+    <t>Accountancy, Business, and Management</t>
+  </si>
+  <si>
+    <t>09265469988</t>
+  </si>
+  <si>
+    <t>05-5465</t>
+  </si>
+  <si>
+    <t>Rylie</t>
+  </si>
+  <si>
+    <t>Yanga</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>ry@g.cpm</t>
+  </si>
+  <si>
+    <t>09568745215</t>
+  </si>
+  <si>
+    <t>Technical Vocational Livelihood</t>
+  </si>
+  <si>
+    <t>Home Economics</t>
+  </si>
+  <si>
+    <t>09265469989</t>
+  </si>
+  <si>
+    <t>05-5466</t>
+  </si>
+  <si>
+    <t>Eahron</t>
+  </si>
+  <si>
+    <t>Estrella</t>
+  </si>
+  <si>
+    <t>eahron@g.com</t>
+  </si>
+  <si>
+    <t>09265984459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Academic Strand </t>
+  </si>
+  <si>
+    <t>09265469990</t>
+  </si>
+  <si>
+    <t>05-5467</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Carbungco</t>
+  </si>
+  <si>
+    <t>ed@g.com</t>
+  </si>
+  <si>
+    <t>09265984460</t>
+  </si>
+  <si>
+    <t>Information Communication Technology</t>
+  </si>
+  <si>
+    <t>09265469991</t>
+  </si>
+  <si>
+    <t>05-5468</t>
+  </si>
+  <si>
+    <t>Shiela</t>
+  </si>
+  <si>
+    <t>Gervacio</t>
+  </si>
+  <si>
+    <t>shi@g.com</t>
+  </si>
+  <si>
+    <t>09265984461</t>
+  </si>
+  <si>
+    <t>Humanities and Social Sciences</t>
+  </si>
+  <si>
+    <t>09265469992</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +370,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,7 +378,7 @@
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,26 +386,355 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,56 +742,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,7 +1122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -428,26 +1155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -480,23 +1190,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,35 +1331,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2032ABDA-60B7-4995-8C9D-B8ECCBCAE1B7}">
-  <dimension ref="A1:AR3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:DZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143"/>
+    <col min="16" max="16" width="16.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="14"/>
+    <col min="18" max="18" width="9.28571428571429"/>
+    <col min="28" max="29" width="9.28571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -687,64 +1379,64 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
@@ -796,221 +1488,814 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" s="2" customFormat="1" ht="44.25" customHeight="1" spans="1:44">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4">
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6">
         <v>37917</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="3">
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2">
         <v>236</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="10">
         <v>107263658963</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="6">
         <v>45079</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>11</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="W2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="Z2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="2">
         <v>96</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="6">
         <v>45018</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AM2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AN2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AQ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" ht="105" spans="1:44">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>69</v>
+      <c r="B3" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="9">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7">
         <v>38189</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="3">
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2">
         <v>236</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10">
         <v>102536989963</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="6">
         <v>45079</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>11</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>97</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>45018</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="AR3" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" ht="90" spans="1:130">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="7">
+        <v>38190</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="2">
+        <v>237</v>
+      </c>
+      <c r="P4" s="10">
+        <v>102536989964</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>45080</v>
+      </c>
+      <c r="R4" s="2">
+        <v>12</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="U4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="8" t="s">
+      <c r="W4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>45019</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>238</v>
+      </c>
+      <c r="AS4"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
+      <c r="DQ4" s="3"/>
+      <c r="DR4" s="3"/>
+      <c r="DS4" s="3"/>
+      <c r="DT4" s="3"/>
+      <c r="DU4" s="3"/>
+      <c r="DV4" s="3"/>
+      <c r="DW4" s="3"/>
+      <c r="DX4" s="3"/>
+      <c r="DY4" s="3"/>
+      <c r="DZ4" s="3"/>
+    </row>
+    <row r="5" ht="90" spans="1:44">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7">
+        <v>38191</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2">
+        <v>238</v>
+      </c>
+      <c r="P5" s="10">
+        <v>102536989965</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>45081</v>
+      </c>
+      <c r="R5" s="2">
+        <v>12</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>45020</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" ht="90" spans="1:44">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="7">
+        <v>38192</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="2">
+        <v>239</v>
+      </c>
+      <c r="P6" s="10">
+        <v>102536989966</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>45082</v>
+      </c>
+      <c r="R6" s="2">
+        <v>12</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>45021</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" ht="90" spans="1:44">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="7">
+        <v>38193</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="2">
+        <v>240</v>
+      </c>
+      <c r="P7" s="10">
+        <v>102536989967</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>45083</v>
+      </c>
+      <c r="R7" s="2">
+        <v>12</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" s="4">
-        <v>45018</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+      <c r="V7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AA7" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>45022</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3" t="s">
+      <c r="AD7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AN7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AP7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR3" s="3">
-        <v>237</v>
+      <c r="AQ7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" ht="90" spans="1:44">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="7">
+        <v>38194</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2">
+        <v>241</v>
+      </c>
+      <c r="P8" s="10">
+        <v>102536989968</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>45084</v>
+      </c>
+      <c r="R8" s="2">
+        <v>12</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>45023</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{6736D398-BB0B-4CE9-BA3C-A62498BF4981}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{6593634B-3BFD-406D-AE54-0678DF88BB10}"/>
+    <hyperlink ref="J2" r:id="rId1" display="eri@j.com"/>
+    <hyperlink ref="J3" r:id="rId2" display="hazel@a.com"/>
+    <hyperlink ref="J4" r:id="rId3" display="rachel@g.com" tooltip="mailto:rachel@g.com"/>
+    <hyperlink ref="J5" r:id="rId4" display="ry@g.cpm" tooltip="mailto:ry@g.cpm"/>
+    <hyperlink ref="J6" r:id="rId5" display="eahron@g.com" tooltip="mailto:eahron@g.com"/>
+    <hyperlink ref="J7" r:id="rId6" display="ed@g.com" tooltip="mailto:ed@g.com"/>
+    <hyperlink ref="J8" r:id="rId7" display="shi@g.com" tooltip="mailto:shi@g.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>